--- a/webapp/media/상장법인목록.xlsx
+++ b/webapp/media/상장법인목록.xlsx
@@ -3299,7 +3299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3371,7 +3371,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3701,7 +3701,7 @@
     <col min="9" max="9" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="51" customFormat="1" s="1">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A17" s="5" t="s">
         <v>104</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A20" s="5" t="s">
         <v>122</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A21" s="5" t="s">
         <v>127</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A22" s="5" t="s">
         <v>133</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A23" s="5" t="s">
         <v>138</v>
       </c>
